--- a/InputData/elec/BDSBaPCF/Boolean Do Suppliers Bid at Peak Capacity Factors.xlsx
+++ b/InputData/elec/BDSBaPCF/Boolean Do Suppliers Bid at Peak Capacity Factors.xlsx
@@ -1,26 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-us\InputData\elec\BDSBaPCF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdeng\Dropbox (Energy Innovation)\EU EPS\InputData\elec\BDSBaPCF\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BEA2AB1-3804-4241-90B3-B98E7C7ABA50}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="23955" windowHeight="11580"/>
+    <workbookView xWindow="39555" yWindow="4515" windowWidth="13635" windowHeight="16125" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="BDSBaPCF" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>BDSBaPCF Boolean Do Suppliers Bid at Peak Capacity Factors</t>
   </si>
@@ -58,9 +67,6 @@
     <t>natural gas peaker</t>
   </si>
   <si>
-    <t>Certain plant types, such as coal and natural gas, are capable of running for most</t>
-  </si>
-  <si>
     <t>of the year (at their Peak Time capacity factors), if there were demand for their</t>
   </si>
   <si>
@@ -128,12 +134,21 @@
   </si>
   <si>
     <t>Do Suppliers Bid at Peak Capacity Factors (Boolean)</t>
+  </si>
+  <si>
+    <t>Certain plant types in some regions, such as coal and natural gas in the US, are capable of running for most</t>
+  </si>
+  <si>
+    <t>In the EU 28 we assume a high degree of the power plants' flexibility.</t>
+  </si>
+  <si>
+    <t>Some plant types are thus set to 1 so that they have the flexibility to bid at higher capacity factors.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -270,6 +285,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -305,6 +337,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -480,104 +529,116 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -586,36 +647,36 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" customWidth="1"/>
+    <col min="1" max="1" width="23.59765625" customWidth="1"/>
+    <col min="2" max="2" width="23.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B1" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -623,7 +684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -631,7 +692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -639,15 +700,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -655,7 +716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -663,7 +724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -671,7 +732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -679,7 +740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -687,7 +748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -695,48 +756,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B13">
-        <f>B2</f>
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
         <v>31</v>
       </c>
-      <c r="B14">
-        <f>B6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
         <v>32</v>
       </c>
-      <c r="B15">
-        <f>B11</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
         <v>33</v>
       </c>
-      <c r="B16">
-        <f>B11</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>34</v>
-      </c>
       <c r="B17">
-        <f>B9</f>
         <v>1</v>
       </c>
     </row>

--- a/InputData/elec/BDSBaPCF/Boolean Do Suppliers Bid at Peak Capacity Factors.xlsx
+++ b/InputData/elec/BDSBaPCF/Boolean Do Suppliers Bid at Peak Capacity Factors.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdeng\Dropbox (Energy Innovation)\EU EPS\InputData\elec\BDSBaPCF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-eu\InputData\elec\BDSBaPCF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BEA2AB1-3804-4241-90B3-B98E7C7ABA50}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39555" yWindow="4515" windowWidth="13635" windowHeight="16125" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39555" yWindow="4515" windowWidth="13635" windowHeight="16125"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="BDSBaPCF" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>BDSBaPCF Boolean Do Suppliers Bid at Peak Capacity Factors</t>
   </si>
@@ -143,12 +142,18 @@
   </si>
   <si>
     <t>Some plant types are thus set to 1 so that they have the flexibility to bid at higher capacity factors.</t>
+  </si>
+  <si>
+    <t>However, we do not allow coal and gas to bid at their peak capacity factor to avoid overdispatch</t>
+  </si>
+  <si>
+    <t>of either type based on dispatch costs.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -285,23 +290,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -337,23 +325,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -529,11 +500,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -591,53 +562,63 @@
         <v>37</v>
       </c>
     </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+    </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
     </row>
@@ -647,14 +628,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -673,7 +654,7 @@
         <v>28</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
@@ -681,7 +662,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
@@ -761,7 +742,7 @@
         <v>27</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">

--- a/InputData/elec/BDSBaPCF/Boolean Do Suppliers Bid at Peak Capacity Factors.xlsx
+++ b/InputData/elec/BDSBaPCF/Boolean Do Suppliers Bid at Peak Capacity Factors.xlsx
@@ -1,29 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-eu\InputData\elec\BDSBaPCF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-eu\InputData\elec\BDSBaPCF\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEE38CCD-FDC2-4920-A290-1BCD3C8D2D1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39555" yWindow="4515" windowWidth="13635" windowHeight="16125"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="BDSBaPCF" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -153,7 +146,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -290,6 +283,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -325,6 +335,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -500,21 +527,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -522,102 +549,102 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -628,7 +655,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -638,34 +665,34 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.59765625" customWidth="1"/>
-    <col min="2" max="2" width="23.1328125" customWidth="1"/>
+    <col min="1" max="1" width="23.6328125" customWidth="1"/>
+    <col min="2" max="2" width="23.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B1" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>28</v>
       </c>
       <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -673,7 +700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -681,7 +708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -689,7 +716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -697,7 +724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -705,7 +732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -713,7 +740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -721,7 +748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -729,7 +756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -737,15 +764,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>27</v>
       </c>
       <c r="B13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -753,7 +780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -761,7 +788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -769,7 +796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>33</v>
       </c>

--- a/InputData/elec/BDSBaPCF/Boolean Do Suppliers Bid at Peak Capacity Factors.xlsx
+++ b/InputData/elec/BDSBaPCF/Boolean Do Suppliers Bid at Peak Capacity Factors.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-eu\InputData\elec\BDSBaPCF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEE38CCD-FDC2-4920-A290-1BCD3C8D2D1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC46C6C8-0B51-43EB-AA20-EC1FDC4AFB1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,18 @@
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="BDSBaPCF" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029" iterate="1" iterateDelta="1.0000000000000001E-5"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -662,7 +673,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -737,7 +748,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -801,7 +812,7 @@
         <v>33</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/elec/BDSBaPCF/Boolean Do Suppliers Bid at Peak Capacity Factors.xlsx
+++ b/InputData/elec/BDSBaPCF/Boolean Do Suppliers Bid at Peak Capacity Factors.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-eu\InputData\elec\BDSBaPCF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\elec\BDSBaPCF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC46C6C8-0B51-43EB-AA20-EC1FDC4AFB1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1F3D9BE-1C8B-413E-B84F-E4DB8AF6F36A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="BDSBaPCF" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1" iterateDelta="1.0000000000000001E-5"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -25,6 +25,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>BDSBaPCF Boolean Do Suppliers Bid at Peak Capacity Factors</t>
   </si>
@@ -43,9 +44,6 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>natural gas nonpeaker</t>
-  </si>
-  <si>
     <t>nuclear</t>
   </si>
   <si>
@@ -70,6 +68,9 @@
     <t>natural gas peaker</t>
   </si>
   <si>
+    <t>Certain plant types, such as coal and natural gas, are capable of running for most</t>
+  </si>
+  <si>
     <t>of the year (at their Peak Time capacity factors), if there were demand for their</t>
   </si>
   <si>
@@ -136,29 +137,53 @@
     <t>municipal solid waste</t>
   </si>
   <si>
-    <t>Do Suppliers Bid at Peak Capacity Factors (Boolean)</t>
-  </si>
-  <si>
-    <t>Certain plant types in some regions, such as coal and natural gas in the US, are capable of running for most</t>
-  </si>
-  <si>
-    <t>In the EU 28 we assume a high degree of the power plants' flexibility.</t>
-  </si>
-  <si>
-    <t>Some plant types are thus set to 1 so that they have the flexibility to bid at higher capacity factors.</t>
-  </si>
-  <si>
-    <t>However, we do not allow coal and gas to bid at their peak capacity factor to avoid overdispatch</t>
-  </si>
-  <si>
-    <t>of either type based on dispatch costs.</t>
+    <t>For the United States, we have set coal to 0 as of version 3.4. This reflects</t>
+  </si>
+  <si>
+    <t>the fact that certain air quality / environmental restrictions, as well as current</t>
+  </si>
+  <si>
+    <t xml:space="preserve">supply chain logistics, limit the amount the coal dispatches annually. </t>
+  </si>
+  <si>
+    <t>natural gas steam turbine</t>
+  </si>
+  <si>
+    <t>natural gas combined cycle</t>
+  </si>
+  <si>
+    <t>Do Suppliers Bid at Peak Capacity Factors</t>
+  </si>
+  <si>
+    <t>Unit: dimensionless (Boolean)</t>
+  </si>
+  <si>
+    <t>hard coal w CCS</t>
+  </si>
+  <si>
+    <t>natural gas combined cycle w CCS</t>
+  </si>
+  <si>
+    <t>biomass w CCS</t>
+  </si>
+  <si>
+    <t>lignite w CCS</t>
+  </si>
+  <si>
+    <t>small modular reactor</t>
+  </si>
+  <si>
+    <t>hydrogen combustion turbine</t>
+  </si>
+  <si>
+    <t>hydrogen combined cycle</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,13 +199,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -195,11 +241,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -219,9 +270,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -259,9 +310,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -294,26 +345,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -346,26 +380,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -539,20 +556,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -560,104 +575,99 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -670,152 +680,225 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.6328125" customWidth="1"/>
-    <col min="2" max="2" width="23.08984375" customWidth="1"/>
+    <col min="1" max="1" width="30.140625" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="B1" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>28</v>
       </c>
       <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>27</v>
       </c>
-      <c r="B13">
+      <c r="B14">
+        <f>B2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15">
+        <f>B7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16">
+        <f>B12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17">
+        <f>B12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18">
+        <f>B10</f>
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="4">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>